--- a/va_facility_data_2025-02-20/Kosciusko VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kosciusko%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kosciusko VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kosciusko%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rec8016bd36f345988b251fc35b9143f2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb0dcb4bc82894dc09f6d021ff2f2a9a0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdcc691024e16441b99554b05babf2ca0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rae4d81b71b6b423fa7117d23677d785f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc509ba85e00543389b76baafc9248fa1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd9dd2891f3134830b48f8fe4d94fd3c4"/>
   </x:sheets>
 </x:workbook>
 </file>
